--- a/DB/Cities-2023-08-18.xlsx
+++ b/DB/Cities-2023-08-18.xlsx
@@ -1,40 +1,527 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\Django_Proj\AIS\DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tablib Dataset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="155">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>stateID</t>
+  </si>
+  <si>
+    <t>cityName_ar</t>
+  </si>
+  <si>
+    <t>cityName_en</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>المحلية</t>
+  </si>
+  <si>
+    <t>حاضرة المحلية</t>
+  </si>
+  <si>
+    <t>وادي حلفا</t>
+  </si>
+  <si>
+    <t>دنقلا</t>
+  </si>
+  <si>
+    <t>مروي</t>
+  </si>
+  <si>
+    <t>الدبة</t>
+  </si>
+  <si>
+    <t>أبو حمد</t>
+  </si>
+  <si>
+    <t>بربر</t>
+  </si>
+  <si>
+    <t>الدامر</t>
+  </si>
+  <si>
+    <t>عطبرة</t>
+  </si>
+  <si>
+    <t>شندي</t>
+  </si>
+  <si>
+    <t>محلية المتمة</t>
+  </si>
+  <si>
+    <t>المتمة</t>
+  </si>
+  <si>
+    <t>حلايب</t>
+  </si>
+  <si>
+    <t>بورتسودان</t>
+  </si>
+  <si>
+    <t>سنكات</t>
+  </si>
+  <si>
+    <t>طوكر</t>
+  </si>
+  <si>
+    <t>سواكن</t>
+  </si>
+  <si>
+    <t>جبيت</t>
+  </si>
+  <si>
+    <t>هيا</t>
+  </si>
+  <si>
+    <t>درديب</t>
+  </si>
+  <si>
+    <t>القوليب وأوليب</t>
+  </si>
+  <si>
+    <t>الفاو</t>
+  </si>
+  <si>
+    <t>الفشقة</t>
+  </si>
+  <si>
+    <t>الشواك</t>
+  </si>
+  <si>
+    <t>بلدية القضارف</t>
+  </si>
+  <si>
+    <t>القضارف</t>
+  </si>
+  <si>
+    <t>الرهد</t>
+  </si>
+  <si>
+    <t>الحواتة</t>
+  </si>
+  <si>
+    <t>القلابات الشرقية</t>
+  </si>
+  <si>
+    <t>دوكة</t>
+  </si>
+  <si>
+    <t>القلابات الغربية</t>
+  </si>
+  <si>
+    <t>كساب</t>
+  </si>
+  <si>
+    <t>قلع النحل</t>
+  </si>
+  <si>
+    <t>البطانة</t>
+  </si>
+  <si>
+    <t>الصباغ</t>
+  </si>
+  <si>
+    <t>القريشة</t>
+  </si>
+  <si>
+    <t>نهر عطبرة</t>
+  </si>
+  <si>
+    <t>حلفا الجديدة</t>
+  </si>
+  <si>
+    <t>كسلا</t>
+  </si>
+  <si>
+    <t>القاش</t>
+  </si>
+  <si>
+    <t>أروما</t>
+  </si>
+  <si>
+    <t>همشكوريب</t>
+  </si>
+  <si>
+    <t>ريفي كسلا</t>
+  </si>
+  <si>
+    <t>شمبوب</t>
+  </si>
+  <si>
+    <t>الخرطوم</t>
+  </si>
+  <si>
+    <t>أم بدة</t>
+  </si>
+  <si>
+    <t>أم درمان</t>
+  </si>
+  <si>
+    <t>كرري</t>
+  </si>
+  <si>
+    <t>الخرطوم بحري</t>
+  </si>
+  <si>
+    <t>شرق النيل</t>
+  </si>
+  <si>
+    <t>جبل أولياء</t>
+  </si>
+  <si>
+    <t>الكاملين</t>
+  </si>
+  <si>
+    <t>شرق الجزيرة</t>
+  </si>
+  <si>
+    <t>رفاعة</t>
+  </si>
+  <si>
+    <t>الحصاحيصا</t>
+  </si>
+  <si>
+    <t>المناقل</t>
+  </si>
+  <si>
+    <t>مدني الكبرى</t>
+  </si>
+  <si>
+    <t>واد مدني</t>
+  </si>
+  <si>
+    <t>جنوب الجزيرة</t>
+  </si>
+  <si>
+    <t>بركات</t>
+  </si>
+  <si>
+    <t>أم القرى</t>
+  </si>
+  <si>
+    <t>سنار</t>
+  </si>
+  <si>
+    <t>سنجة</t>
+  </si>
+  <si>
+    <t>الدندر</t>
+  </si>
+  <si>
+    <t>كلبُس</t>
+  </si>
+  <si>
+    <t>سودري</t>
+  </si>
+  <si>
+    <t>جبرة الشيخ</t>
+  </si>
+  <si>
+    <t>بارا</t>
+  </si>
+  <si>
+    <t>شيكان</t>
+  </si>
+  <si>
+    <t>أم روابة</t>
+  </si>
+  <si>
+    <t>أم دم</t>
+  </si>
+  <si>
+    <t>الدويم</t>
+  </si>
+  <si>
+    <t>القطينة</t>
+  </si>
+  <si>
+    <t>كوستي</t>
+  </si>
+  <si>
+    <t>الجبلين</t>
+  </si>
+  <si>
+    <t>أم رمته</t>
+  </si>
+  <si>
+    <t>ودنمر</t>
+  </si>
+  <si>
+    <t>الدمازين</t>
+  </si>
+  <si>
+    <t>الروصيرص</t>
+  </si>
+  <si>
+    <t>قيسان</t>
+  </si>
+  <si>
+    <t>باو</t>
+  </si>
+  <si>
+    <t>الكرمك</t>
+  </si>
+  <si>
+    <t>الدلنج</t>
+  </si>
+  <si>
+    <t>رشاد</t>
+  </si>
+  <si>
+    <t>أبو جبيهة</t>
+  </si>
+  <si>
+    <t>تلودي</t>
+  </si>
+  <si>
+    <t>كادقلي</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
+    <t>القوز</t>
+  </si>
+  <si>
+    <t>كليك</t>
+  </si>
+  <si>
+    <t>هبيلا</t>
+  </si>
+  <si>
+    <t>دلامي</t>
+  </si>
+  <si>
+    <t>برام</t>
+  </si>
+  <si>
+    <t>هيبان</t>
+  </si>
+  <si>
+    <t>أم دورين</t>
+  </si>
+  <si>
+    <t>الريف الشرقي</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>النهود</t>
+  </si>
+  <si>
+    <t>بابنوسة</t>
+  </si>
+  <si>
+    <t>الفولة</t>
+  </si>
+  <si>
+    <t>أبيي</t>
+  </si>
+  <si>
+    <t>كاس</t>
+  </si>
+  <si>
+    <t>عد الفرسان</t>
+  </si>
+  <si>
+    <t>نيالا</t>
+  </si>
+  <si>
+    <t>تلس</t>
+  </si>
+  <si>
+    <t>رهيد البردي</t>
+  </si>
+  <si>
+    <t>كنيلا</t>
+  </si>
+  <si>
+    <t>الردوم</t>
+  </si>
+  <si>
+    <t>كتم</t>
+  </si>
+  <si>
+    <t>أم دافوق</t>
+  </si>
+  <si>
+    <t>شاطايا</t>
+  </si>
+  <si>
+    <t>دمسو</t>
+  </si>
+  <si>
+    <t>قريضة</t>
+  </si>
+  <si>
+    <t>شرق الجبل</t>
+  </si>
+  <si>
+    <t>بليل</t>
+  </si>
+  <si>
+    <t>الوحدة</t>
+  </si>
+  <si>
+    <t>مرشنج</t>
+  </si>
+  <si>
+    <t>السنطة</t>
+  </si>
+  <si>
+    <t>نتيقا</t>
+  </si>
+  <si>
+    <t>الجنينة</t>
+  </si>
+  <si>
+    <t>هبيلة</t>
+  </si>
+  <si>
+    <t>بيضة</t>
+  </si>
+  <si>
+    <t>سربا</t>
+  </si>
+  <si>
+    <t>كرينك</t>
+  </si>
+  <si>
+    <t>جبل مون</t>
+  </si>
+  <si>
+    <t>قوز برنقا</t>
+  </si>
+  <si>
+    <t>مليط</t>
+  </si>
+  <si>
+    <t>كبكابية</t>
+  </si>
+  <si>
+    <t>الفاشر</t>
+  </si>
+  <si>
+    <t>أم كدادة</t>
+  </si>
+  <si>
+    <t>الضعين</t>
+  </si>
+  <si>
+    <t>بحر العرب</t>
+  </si>
+  <si>
+    <t>الفردوس</t>
+  </si>
+  <si>
+    <t>أبو كارنكا</t>
+  </si>
+  <si>
+    <t>شعيرية</t>
+  </si>
+  <si>
+    <t>عديلة</t>
+  </si>
+  <si>
+    <t>أبو جابرة</t>
+  </si>
+  <si>
+    <t>ياسين</t>
+  </si>
+  <si>
+    <t>عسلاية</t>
+  </si>
+  <si>
+    <t>زالنجي</t>
+  </si>
+  <si>
+    <t>أزوم</t>
+  </si>
+  <si>
+    <t>وادي صالح</t>
+  </si>
+  <si>
+    <t>مكجر</t>
+  </si>
+  <si>
+    <t>أم دخن</t>
+  </si>
+  <si>
+    <t>جبل مرة</t>
+  </si>
+  <si>
+    <t>نيرتيتي</t>
+  </si>
+  <si>
+    <t>روكورو</t>
+  </si>
+  <si>
+    <t>بندسي</t>
+  </si>
+  <si>
+    <t>capitalCity</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,82 +536,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,48 +844,2148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stateID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cityName_ar</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cityName_en</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>145</v>
+      </c>
+      <c r="E111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>109</v>
+      </c>
+      <c r="E127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>116</v>
+      </c>
+      <c r="E134" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>117</v>
+      </c>
+      <c r="E135" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>93</v>
+      </c>
+      <c r="E136" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>119</v>
+      </c>
+      <c r="E138" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>120</v>
+      </c>
+      <c r="E139" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" tooltip="محلية وادي حلفا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D9%88%D8%A7%D8%AF%D9%8A_%D8%AD%D9%84%D9%81%D8%A7"/>
+    <hyperlink ref="E26" r:id="rId2" tooltip="وادي حلفا" display="https://ar.wikipedia.org/wiki/%D9%88%D8%A7%D8%AF%D9%8A_%D8%AD%D9%84%D9%81%D8%A7"/>
+    <hyperlink ref="C27" r:id="rId3" tooltip="محلية دنقلا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%AF%D9%86%D9%82%D9%84%D8%A7"/>
+    <hyperlink ref="E27" r:id="rId4" tooltip="دنقلا" display="https://ar.wikipedia.org/wiki/%D8%AF%D9%86%D9%82%D9%84%D8%A7"/>
+    <hyperlink ref="C28" r:id="rId5" tooltip="مروي" display="https://ar.wikipedia.org/wiki/%D9%85%D8%B1%D9%88%D9%8A"/>
+    <hyperlink ref="E28" r:id="rId6" tooltip="مروي" display="https://ar.wikipedia.org/wiki/%D9%85%D8%B1%D9%88%D9%8A"/>
+    <hyperlink ref="C29" r:id="rId7" tooltip="الدبة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="E29" r:id="rId8" tooltip="الدبة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="C30" r:id="rId9" tooltip="محلية أبو حمد" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A3%D8%A8%D9%88_%D8%AD%D9%85%D8%AF"/>
+    <hyperlink ref="E30" r:id="rId10" tooltip="أبو حمد" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%A8%D9%88_%D8%AD%D9%85%D8%AF"/>
+    <hyperlink ref="C31" r:id="rId11" tooltip="محلية بربر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A8%D8%B1%D8%A8%D8%B1"/>
+    <hyperlink ref="E31" r:id="rId12" tooltip="بربر (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D8%A8%D8%B1_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="C32" r:id="rId13" tooltip="محلية الدامر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AF%D8%A7%D9%85%D8%B1"/>
+    <hyperlink ref="E32" r:id="rId14" tooltip="الدامر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A7%D9%85%D8%B1"/>
+    <hyperlink ref="C33" r:id="rId15" tooltip="محلية عطبرة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9"/>
+    <hyperlink ref="E33" r:id="rId16" tooltip="شندي" display="https://ar.wikipedia.org/wiki/%D8%B4%D9%86%D8%AF%D9%8A"/>
+    <hyperlink ref="C34" r:id="rId17" tooltip="محلية المتمة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%85%D8%AA%D9%85%D8%A9"/>
+    <hyperlink ref="E34" r:id="rId18" tooltip="المتمة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D8%AA%D9%85%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C82" r:id="rId19" tooltip="حلايب" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D8%A7%D9%8A%D8%A8"/>
+    <hyperlink ref="E82" r:id="rId20" tooltip="حلايب" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D8%A7%D9%8A%D8%A8"/>
+    <hyperlink ref="C83" r:id="rId21" tooltip="بورتسودان" display="https://ar.wikipedia.org/wiki/%D8%A8%D9%88%D8%B1%D8%AA%D8%B3%D9%88%D8%AF%D8%A7%D9%86"/>
+    <hyperlink ref="E83" r:id="rId22" tooltip="بورتسودان" display="https://ar.wikipedia.org/wiki/%D8%A8%D9%88%D8%B1%D8%AA%D8%B3%D9%88%D8%AF%D8%A7%D9%86"/>
+    <hyperlink ref="C84" r:id="rId23" tooltip="سنكات" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D9%83%D8%A7%D8%AA"/>
+    <hyperlink ref="E84" r:id="rId24" tooltip="سنكات" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D9%83%D8%A7%D8%AA"/>
+    <hyperlink ref="C85" r:id="rId25" tooltip="طوكر" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%88%D9%83%D8%B1"/>
+    <hyperlink ref="E85" r:id="rId26" tooltip="طوكر" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%88%D9%83%D8%B1"/>
+    <hyperlink ref="C86" r:id="rId27" tooltip="سواكن" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%A7%D9%83%D9%86"/>
+    <hyperlink ref="E86" r:id="rId28" tooltip="سواكن" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%A7%D9%83%D9%86"/>
+    <hyperlink ref="C87" r:id="rId29" tooltip="جبيت" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%8A%D8%AA"/>
+    <hyperlink ref="E87" r:id="rId30" tooltip="جبيت" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%8A%D8%AA"/>
+    <hyperlink ref="C88" r:id="rId31" tooltip="هيا (توضيح)" display="https://ar.wikipedia.org/wiki/%D9%87%D9%8A%D8%A7_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
+    <hyperlink ref="E88" r:id="rId32" tooltip="هيا (توضيح)" display="https://ar.wikipedia.org/wiki/%D9%87%D9%8A%D8%A7_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
+    <hyperlink ref="C89" r:id="rId33" tooltip="درديب" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B1%D8%AF%D9%8A%D8%A8"/>
+    <hyperlink ref="E89" r:id="rId34" tooltip="درديب" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B1%D8%AF%D9%8A%D8%A8"/>
+    <hyperlink ref="C91" r:id="rId35" tooltip="محلية الفاو" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%81%D8%A7%D9%88"/>
+    <hyperlink ref="E91" r:id="rId36" tooltip="الفاو (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D9%88_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C92" r:id="rId37" tooltip="محلية الفشقة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%81%D8%B4%D9%82%D8%A9"/>
+    <hyperlink ref="E92" r:id="rId38" tooltip="الشواك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D9%88%D8%A7%D9%83"/>
+    <hyperlink ref="C93" r:id="rId39" tooltip="محلية القضارف" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%B6%D8%A7%D8%B1%D9%81"/>
+    <hyperlink ref="E93" r:id="rId40" tooltip="القضارف (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B6%D8%A7%D8%B1%D9%81_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="C94" r:id="rId41" tooltip="محلية الرهد" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%B1%D9%87%D8%AF"/>
+    <hyperlink ref="E94" r:id="rId42" tooltip="الحواتة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D9%88%D8%A7%D8%AA%D8%A9"/>
+    <hyperlink ref="E95" r:id="rId43" tooltip="دوكة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%AF%D9%88%D9%83%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="E96" r:id="rId44" tooltip="كساب" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D8%A7%D8%A8"/>
+    <hyperlink ref="C97" r:id="rId45" tooltip="قلع النحل" display="https://ar.wikipedia.org/wiki/%D9%82%D9%84%D8%B9_%D8%A7%D9%84%D9%86%D8%AD%D9%84"/>
+    <hyperlink ref="E97" r:id="rId46" tooltip="قلع النحل" display="https://ar.wikipedia.org/wiki/%D9%82%D9%84%D8%B9_%D8%A7%D9%84%D9%86%D8%AD%D9%84"/>
+    <hyperlink ref="C98" r:id="rId47" tooltip="البطانة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%A8%D8%B7%D8%A7%D9%86%D8%A9"/>
+    <hyperlink ref="C99" r:id="rId48" tooltip="القريشة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D8%B4%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="E99" r:id="rId49" tooltip="القريشة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D8%B4%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C101" r:id="rId50" tooltip="نهر عطبرة" display="https://ar.wikipedia.org/wiki/%D9%86%D9%87%D8%B1_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9"/>
+    <hyperlink ref="E101" r:id="rId51" tooltip="حلفا الجديدة" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D9%81%D8%A7_%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9"/>
+    <hyperlink ref="C102" r:id="rId52" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
+    <hyperlink ref="E102" r:id="rId53" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
+    <hyperlink ref="C103" r:id="rId54" tooltip="محلية القاش" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%A7%D8%B4"/>
+    <hyperlink ref="E103" r:id="rId55" tooltip="أروما" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%B1%D9%88%D9%85%D8%A7"/>
+    <hyperlink ref="C104" r:id="rId56" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
+    <hyperlink ref="E104" r:id="rId57" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
+    <hyperlink ref="C2" r:id="rId58" tooltip="محلية الخرطوم" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85"/>
+    <hyperlink ref="E2" r:id="rId59" tooltip="الخرطوم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85"/>
+    <hyperlink ref="C4" r:id="rId60" tooltip="محلية أم درمان الكبرى" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A3%D9%85_%D8%AF%D8%B1%D9%85%D8%A7%D9%86_%D8%A7%D9%84%D9%83%D8%A8%D8%B1%D9%89"/>
+    <hyperlink ref="E4" r:id="rId61" tooltip="أم درمان" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%AF%D8%B1%D9%85%D8%A7%D9%86"/>
+    <hyperlink ref="C6" r:id="rId62" tooltip="الخرطوم بحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85_%D8%A8%D8%AD%D8%B1%D9%8A"/>
+    <hyperlink ref="E6" r:id="rId63" tooltip="الخرطوم بحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85_%D8%A8%D8%AD%D8%B1%D9%8A"/>
+    <hyperlink ref="C7" r:id="rId64" tooltip="شرق النيل" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D9%86%D9%8A%D9%84"/>
+    <hyperlink ref="E7" r:id="rId65" tooltip="شرق النيل" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D9%86%D9%8A%D9%84"/>
+    <hyperlink ref="C8" r:id="rId66" tooltip="جبل الأولياء" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A7%D8%A1"/>
+    <hyperlink ref="E8" r:id="rId67" tooltip="جبل الأولياء" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A7%D8%A1"/>
+    <hyperlink ref="C9" r:id="rId68" tooltip="محلية الكاملين" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%83%D8%A7%D9%85%D9%84%D9%8A%D9%86"/>
+    <hyperlink ref="E9" r:id="rId69" tooltip="الكاملين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%A7%D9%85%D9%84%D9%8A%D9%86"/>
+    <hyperlink ref="C10" r:id="rId70" tooltip="شرق الجزيرة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="E10" r:id="rId71" tooltip="رفاعة" display="https://ar.wikipedia.org/wiki/%D8%B1%D9%81%D8%A7%D8%B9%D8%A9"/>
+    <hyperlink ref="C11" r:id="rId72" tooltip="الحصاحيصا" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D8%B5%D8%A7%D8%AD%D9%8A%D8%B5%D8%A7"/>
+    <hyperlink ref="E11" r:id="rId73" tooltip="الحصاحيصا" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D8%B5%D8%A7%D8%AD%D9%8A%D8%B5%D8%A7"/>
+    <hyperlink ref="C12" r:id="rId74" tooltip="المناقل" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D9%86%D8%A7%D9%82%D9%84"/>
+    <hyperlink ref="E12" r:id="rId75" tooltip="المناقل" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D9%86%D8%A7%D9%82%D9%84"/>
+    <hyperlink ref="C13" r:id="rId76" tooltip="ود مدني" display="https://ar.wikipedia.org/wiki/%D9%88%D8%AF_%D9%85%D8%AF%D9%86%D9%8A"/>
+    <hyperlink ref="E13" r:id="rId77" tooltip="ود مدني" display="https://ar.wikipedia.org/wiki/%D9%88%D8%AF_%D9%85%D8%AF%D9%86%D9%8A"/>
+    <hyperlink ref="E14" r:id="rId78" tooltip="بركات (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D9%83%D8%A7%D8%AA_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C15" r:id="rId79" tooltip="أم القرى (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D9%82%D8%B1%D9%89_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="E15" r:id="rId80" tooltip="أم القرى (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D9%82%D8%B1%D9%89_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C16" r:id="rId81" tooltip="سنار" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%A7%D8%B1"/>
+    <hyperlink ref="E16" r:id="rId82" tooltip="سنار" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%A7%D8%B1"/>
+    <hyperlink ref="C17" r:id="rId83" tooltip="سنجة" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%AC%D8%A9"/>
+    <hyperlink ref="E17" r:id="rId84" tooltip="سنجة" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%AC%D8%A9"/>
+    <hyperlink ref="C18" r:id="rId85" tooltip="محلية الدندر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AF%D9%86%D8%AF%D8%B1"/>
+    <hyperlink ref="E18" r:id="rId86" tooltip="الدندر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%86%D8%AF%D8%B1"/>
+    <hyperlink ref="C20" r:id="rId87" tooltip="سودري" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%AF%D8%B1%D9%8A"/>
+    <hyperlink ref="C21" r:id="rId88" tooltip="جبرة الشيخ (الصفحة غير موجودة)" display="https://ar.wikipedia.org/w/index.php?title=%D8%AC%D8%A8%D8%B1%D8%A9_%D8%A7%D9%84%D8%B4%D9%8A%D8%AE&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="C22" r:id="rId89" tooltip="محلية بارا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A8%D8%A7%D8%B1%D8%A7"/>
+    <hyperlink ref="E22" r:id="rId90" tooltip="بارا" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%B1%D8%A7"/>
+    <hyperlink ref="C24" r:id="rId91" tooltip="أم روابة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%B1%D9%88%D8%A7%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="E24" r:id="rId92" tooltip="أم روابة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%B1%D9%88%D8%A7%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="C25" r:id="rId93" tooltip="أم الدم" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D8%AF%D9%85"/>
+    <hyperlink ref="E25" r:id="rId94" tooltip="أم الدم" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D8%AF%D9%85"/>
+    <hyperlink ref="C40" r:id="rId95" tooltip="الدويم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%88%D9%8A%D9%85"/>
+    <hyperlink ref="E40" r:id="rId96" tooltip="الدويم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%88%D9%8A%D9%85"/>
+    <hyperlink ref="C41" r:id="rId97" tooltip="القطينة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%86%D8%A9"/>
+    <hyperlink ref="E41" r:id="rId98" tooltip="القطينة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%86%D8%A9"/>
+    <hyperlink ref="C42" r:id="rId99" tooltip="كوستي" display="https://ar.wikipedia.org/wiki/%D9%83%D9%88%D8%B3%D8%AA%D9%8A"/>
+    <hyperlink ref="E42" r:id="rId100" tooltip="كوستي" display="https://ar.wikipedia.org/wiki/%D9%83%D9%88%D8%B3%D8%AA%D9%8A"/>
+    <hyperlink ref="C43" r:id="rId101" tooltip="جبلين (توضيح)" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84%D9%8A%D9%86_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
+    <hyperlink ref="E43" r:id="rId102" tooltip="جبلين (توضيح)" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84%D9%8A%D9%86_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
+    <hyperlink ref="C35" r:id="rId103" tooltip="الدمازين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D8%B2%D9%8A%D9%86"/>
+    <hyperlink ref="E35" r:id="rId104" tooltip="الدمازين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D8%B2%D9%8A%D9%86"/>
+    <hyperlink ref="C36" r:id="rId105" tooltip="الروصيرص" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B1%D9%88%D8%B5%D9%8A%D8%B1%D8%B5"/>
+    <hyperlink ref="E36" r:id="rId106" tooltip="الروصيرص" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B1%D9%88%D8%B5%D9%8A%D8%B1%D8%B5"/>
+    <hyperlink ref="C38" r:id="rId107" tooltip="باو" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D9%88"/>
+    <hyperlink ref="E38" r:id="rId108" tooltip="باو" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D9%88"/>
+    <hyperlink ref="C39" r:id="rId109" tooltip="الكرمك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%B1%D9%85%D9%83"/>
+    <hyperlink ref="E39" r:id="rId110" tooltip="الكرمك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%B1%D9%85%D9%83"/>
+    <hyperlink ref="C45" r:id="rId111" tooltip="الدلنج" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%84%D9%86%D8%AC"/>
+    <hyperlink ref="E45" r:id="rId112" tooltip="الدلنج" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%84%D9%86%D8%AC"/>
+    <hyperlink ref="E47" r:id="rId113" tooltip="أبو جبيهة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%A8%D9%88_%D8%AC%D8%A8%D9%8A%D9%87%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="C48" r:id="rId114" tooltip="تلودي" display="https://ar.wikipedia.org/wiki/%D8%AA%D9%84%D9%88%D8%AF%D9%8A"/>
+    <hyperlink ref="E48" r:id="rId115" tooltip="تلودي" display="https://ar.wikipedia.org/wiki/%D8%AA%D9%84%D9%88%D8%AF%D9%8A"/>
+    <hyperlink ref="C49" r:id="rId116" tooltip="كادوقلي" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%AF%D9%88%D9%82%D9%84%D9%8A"/>
+    <hyperlink ref="E49" r:id="rId117" tooltip="كادوقلي" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%AF%D9%88%D9%82%D9%84%D9%8A"/>
+    <hyperlink ref="C55" r:id="rId118" tooltip="برام" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D8%A7%D9%85"/>
+    <hyperlink ref="C59" r:id="rId119" tooltip="العباسية (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B9%D8%A8%D8%A7%D8%B3%D9%8A%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C60" r:id="rId120" tooltip="النهود" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%86%D9%87%D9%88%D8%AF"/>
+    <hyperlink ref="E60" r:id="rId121" tooltip="النهود" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%86%D9%87%D9%88%D8%AF"/>
+    <hyperlink ref="C61" r:id="rId122" tooltip="بابنوسة" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%A8%D9%86%D9%88%D8%B3%D8%A9"/>
+    <hyperlink ref="E61" r:id="rId123" tooltip="بابنوسة" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%A8%D9%86%D9%88%D8%B3%D8%A9"/>
+    <hyperlink ref="C62" r:id="rId124" tooltip="الفولة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D9%88%D9%84%D8%A9"/>
+    <hyperlink ref="E62" r:id="rId125" tooltip="الفولة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D9%88%D9%84%D8%A9"/>
+    <hyperlink ref="C64" r:id="rId126" tooltip="منطقة أبيي" display="https://ar.wikipedia.org/wiki/%D9%85%D9%86%D8%B7%D9%82%D8%A9_%D8%A3%D8%A8%D9%8A%D9%8A"/>
+    <hyperlink ref="E64" r:id="rId127" tooltip="منطقة أبيي" display="https://ar.wikipedia.org/wiki/%D9%85%D9%86%D8%B7%D9%82%D8%A9_%D8%A3%D8%A8%D9%8A%D9%8A"/>
+    <hyperlink ref="C125" r:id="rId128" tooltip="كاس (مدينة)" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%B3_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
+    <hyperlink ref="C126" r:id="rId129" tooltip="عد الفرسان" display="https://ar.wikipedia.org/wiki/%D8%B9%D8%AF_%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86"/>
+    <hyperlink ref="E126" r:id="rId130" tooltip="عد الفرسان" display="https://ar.wikipedia.org/wiki/%D8%B9%D8%AF_%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86"/>
+    <hyperlink ref="C127" r:id="rId131" tooltip="نيالا (السودان)" display="https://ar.wikipedia.org/wiki/%D9%86%D9%8A%D8%A7%D9%84%D8%A7_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="E127" r:id="rId132" tooltip="نيالا (السودان)" display="https://ar.wikipedia.org/wiki/%D9%86%D9%8A%D8%A7%D9%84%D8%A7_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C129" r:id="rId133" tooltip="رهيد البردي" display="https://ar.wikipedia.org/wiki/%D8%B1%D9%87%D9%8A%D8%AF_%D8%A7%D9%84%D8%A8%D8%B1%D8%AF%D9%8A"/>
+    <hyperlink ref="C132" r:id="rId134" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
+    <hyperlink ref="E132" r:id="rId135" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
+    <hyperlink ref="C75" r:id="rId136" tooltip="الجنينة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AC%D9%86%D9%8A%D9%86%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="E75" r:id="rId137" tooltip="الجنينة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AC%D9%86%D9%8A%D9%86%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
+    <hyperlink ref="C120" r:id="rId138" tooltip="مليط" display="https://ar.wikipedia.org/wiki/%D9%85%D9%84%D9%8A%D8%B7"/>
+    <hyperlink ref="E120" r:id="rId139" tooltip="مليط" display="https://ar.wikipedia.org/wiki/%D9%85%D9%84%D9%8A%D8%B7"/>
+    <hyperlink ref="C121" r:id="rId140" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
+    <hyperlink ref="E121" r:id="rId141" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
+    <hyperlink ref="C123" r:id="rId142" tooltip="الفاشر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D8%B4%D8%B1"/>
+    <hyperlink ref="E123" r:id="rId143" tooltip="الفاشر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D8%B4%D8%B1"/>
+    <hyperlink ref="C65" r:id="rId144" tooltip="الضعين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B6%D8%B9%D9%8A%D9%86"/>
+    <hyperlink ref="E65" r:id="rId145" tooltip="الضعين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B6%D8%B9%D9%8A%D9%86"/>
+    <hyperlink ref="C111" r:id="rId146" tooltip="زالنجي" display="https://ar.wikipedia.org/wiki/%D8%B2%D8%A7%D9%84%D9%86%D8%AC%D9%8A"/>
+    <hyperlink ref="E111" r:id="rId147" tooltip="زالنجي" display="https://ar.wikipedia.org/wiki/%D8%B2%D8%A7%D9%84%D9%86%D8%AC%D9%8A"/>
+    <hyperlink ref="C113" r:id="rId148" tooltip="محلية وادي صالح" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D9%88%D8%A7%D8%AF%D9%8A_%D8%B5%D8%A7%D9%84%D8%AD"/>
+    <hyperlink ref="C116" r:id="rId149" tooltip="جبل مرة" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D9%85%D8%B1%D8%A9"/>
+    <hyperlink ref="C106" r:id="rId150" tooltip="نهر عطبرة" display="https://ar.wikipedia.org/wiki/%D9%86%D9%87%D8%B1_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9"/>
+    <hyperlink ref="E106" r:id="rId151" tooltip="حلفا الجديدة" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D9%81%D8%A7_%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9"/>
+    <hyperlink ref="C107" r:id="rId152" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
+    <hyperlink ref="E107" r:id="rId153" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
+    <hyperlink ref="C108" r:id="rId154" tooltip="محلية القاش" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%A7%D8%B4"/>
+    <hyperlink ref="E108" r:id="rId155" tooltip="أروما" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%B1%D9%88%D9%85%D8%A7"/>
+    <hyperlink ref="C109" r:id="rId156" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
+    <hyperlink ref="E109" r:id="rId157" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId158"/>
 </worksheet>
 </file>
--- a/DB/Cities-2023-08-18.xlsx
+++ b/DB/Cities-2023-08-18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\Django_Proj\AIS\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,12 +27,6 @@
     <t>stateID</t>
   </si>
   <si>
-    <t>cityName_ar</t>
-  </si>
-  <si>
-    <t>cityName_en</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
   </si>
   <si>
     <t>capitalCity</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>name_ar</t>
   </si>
 </sst>
 </file>
@@ -849,7 +849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E143"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,16 +870,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,10 +946,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,10 +1016,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,10 +1030,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,10 +1142,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,10 +1212,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1226,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,10 +1310,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1338,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1352,10 +1352,10 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,10 +1394,10 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,10 +1408,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,10 +1450,10 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,10 +1478,10 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1492,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,10 +1506,10 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,10 +1520,10 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,10 +1534,10 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1548,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1686,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,10 +1728,10 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,10 +1742,10 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,10 +1756,10 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,10 +1770,10 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,10 +1784,10 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,10 +1798,10 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1812,10 +1812,10 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,10 +1826,10 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,10 +1840,10 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,10 +1854,10 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,10 +1868,10 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1882,10 +1882,10 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,10 +1896,10 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,10 +1965,10 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,10 +1979,10 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,10 +1993,10 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2007,10 +2007,10 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,10 +2021,10 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2035,10 +2035,10 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,10 +2049,10 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,10 +2063,10 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,10 +2091,10 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,10 +2105,10 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,10 +2119,10 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,10 +2133,10 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,10 +2147,10 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2161,10 +2161,10 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,10 +2175,10 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,10 +2189,10 @@
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,10 +2203,10 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,10 +2217,10 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,10 +2231,10 @@
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,10 +2245,10 @@
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,10 +2259,10 @@
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,10 +2273,10 @@
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2287,10 +2287,10 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,10 +2301,10 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,10 +2315,10 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,10 +2329,10 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,10 +2343,10 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,10 +2357,10 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,10 +2371,10 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,10 +2385,10 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,10 +2399,10 @@
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,10 +2413,10 @@
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,10 +2427,10 @@
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,10 +2441,10 @@
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,10 +2455,10 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,10 +2469,10 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,10 +2483,10 @@
         <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,10 +2497,10 @@
         <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,10 +2511,10 @@
         <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,10 +2525,10 @@
         <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2539,10 +2539,10 @@
         <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2553,10 +2553,10 @@
         <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,10 +2567,10 @@
         <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,10 +2581,10 @@
         <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,10 +2595,10 @@
         <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E127" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,10 +2609,10 @@
         <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,10 +2623,10 @@
         <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E129" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,10 +2637,10 @@
         <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E130" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,10 +2651,10 @@
         <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E131" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,10 +2665,10 @@
         <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,10 +2679,10 @@
         <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E133" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,10 +2693,10 @@
         <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E134" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,10 +2707,10 @@
         <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E135" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,10 +2721,10 @@
         <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E136" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,10 +2735,10 @@
         <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E137" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,10 +2749,10 @@
         <v>18</v>
       </c>
       <c r="C138" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E138" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,10 +2763,10 @@
         <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E139" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E140" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,10 +2791,10 @@
         <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,10 +2805,10 @@
         <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E142" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,10 +2819,10 @@
         <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E143" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
